--- a/datos.xlsx
+++ b/datos.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,31 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abel.coronado\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5C68DFB-4E71-4F3A-B9E4-04814BF5D8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105D5EA1-115F-4CF0-B716-1C1CB71D49F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="datos (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="datos" sheetId="1" r:id="rId2"/>
+    <sheet name="datos" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'datos (2)'!$A$1:$B$11</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">datos!$A$1:$B$11</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Consulta - datos" description="Conexión a la consulta 'datos' en el libro." type="5" refreshedVersion="8" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Consulta - datos" description="Conexión a la consulta 'datos' en el libro." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=datos;Extended Properties=&quot;&quot;" command="SELECT * FROM [datos]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ciudad</t>
   </si>
@@ -43,16 +42,10 @@
     <t>Tijuana</t>
   </si>
   <si>
-    <t>JuÃ¡rez</t>
-  </si>
-  <si>
     <t>Gustavo A. Madero</t>
   </si>
   <si>
     <t>Iztapalapa</t>
-  </si>
-  <si>
-    <t>LeÃ³n de los Aldama</t>
   </si>
   <si>
     <t>Guadalajara</t>
@@ -79,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -557,9 +550,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -623,7 +615,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DatosExternos_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="ciudad" tableColumnId="1"/>
@@ -634,11 +626,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="datos" displayName="datos" ref="A1:B11" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="datos" displayName="datos" ref="A1:B11" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="ciudad" queryTableFieldId="1" dataDxfId="0"/>
-    <tableColumn id="2" uniqueName="2" name="pob_total" queryTableFieldId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="ciudad" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="pob_total" queryTableFieldId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -960,7 +952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -980,7 +972,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
@@ -988,72 +980,72 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
+      <c r="A3" t="s">
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1501551</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1173351</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1835486</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
+      <c r="A6" t="s">
+        <v>11</v>
       </c>
       <c r="B6">
         <v>1579803</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
+      <c r="A7" t="s">
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1385621</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
+      <c r="A8" t="s">
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1257547</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
+      <c r="A9" t="s">
+        <v>7</v>
       </c>
       <c r="B9">
         <v>1643623</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
+      <c r="A10" t="s">
+        <v>8</v>
       </c>
       <c r="B10">
         <v>1142952</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1542232</v>
@@ -1064,109 +1056,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1810645</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1501551</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1173351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1835486</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>1579803</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>1385621</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>1257547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>1643623</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>1142952</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>1542232</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
